--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
   <si>
     <t>cutoff</t>
   </si>
@@ -95,9 +95,6 @@
     <t>cubic meter</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>GLO</t>
   </si>
   <si>
@@ -236,6 +233,12 @@
     <t>market for sand</t>
   </si>
   <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
     <t>market for plasticiser, for concrete, based on sulfonated melamine formaldehyde</t>
   </si>
   <si>
@@ -255,6 +258,42 @@
   </si>
   <si>
     <t>soil::industrial</t>
+  </si>
+  <si>
+    <t>market for cement, Portland</t>
+  </si>
+  <si>
+    <t>cement, Portland</t>
+  </si>
+  <si>
+    <t>0,15739</t>
+  </si>
+  <si>
+    <t>0,047136</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>0,108</t>
+  </si>
+  <si>
+    <t>0,198</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>0,185</t>
+  </si>
+  <si>
+    <t>4,37</t>
+  </si>
+  <si>
+    <t>325,6</t>
   </si>
 </sst>
 </file>
@@ -607,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,25 +677,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -684,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2">
         <v>3</v>
@@ -763,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -779,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -828,59 +867,59 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
       <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AC11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -893,16 +932,16 @@
         <v>Woodchip production</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -910,22 +949,22 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>0.15739</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -969,29 +1008,29 @@
         <f>SQRT((LN(V13))^2+LN(W13)^2+LN(X13)^2+LN(Y13)^2+LN(Z13)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="e">
         <f>LN(D13)</f>
-        <v>-1.8490284774186274</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="D14">
-        <v>4.7135999999999997E-2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1002,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
@@ -1027,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -1043,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -1092,59 +1131,59 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>24</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
       <c r="P23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AB23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB23" s="5" t="s">
+      <c r="AC23" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -1157,16 +1196,16 @@
         <v>Woodchip transport</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -1174,22 +1213,22 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1246,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -1271,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -1287,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -1336,59 +1375,59 @@
         <v>11</v>
       </c>
       <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
         <v>22</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>23</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>24</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>25</v>
       </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
       <c r="P34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="Z34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z34" s="4" t="s">
+      <c r="AA34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA34" s="4" t="s">
+      <c r="AB34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB34" s="5" t="s">
+      <c r="AC34" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -1401,16 +1440,16 @@
         <v>Pyrolysis</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -1424,16 +1463,16 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36">
-        <v>0.01</v>
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1477,29 +1516,29 @@
         <f>SQRT((LN(V36))^2+LN(W36)^2+LN(X36)^2+LN(Y36)^2+LN(Z36)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" t="e">
         <f>LN(D36)</f>
-        <v>-4.6051701859880909</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0.108</v>
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -1540,29 +1579,29 @@
         <f>SQRT((LN(V37))^2+LN(W37)^2+LN(X37)^2+LN(Y37)^2+LN(Z37)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" t="e">
         <f>LN(D37)</f>
-        <v>-2.2256240518579173</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0.19800000000000001</v>
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -1603,9 +1642,9 @@
         <f>SQRT((LN(V38))^2+LN(W38)^2+LN(X38)^2+LN(Y38)^2+LN(Z38)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" t="e">
         <f>LN(D38)</f>
-        <v>-1.6194882482876019</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
@@ -1613,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -1638,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
@@ -1654,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -1703,59 +1742,59 @@
         <v>11</v>
       </c>
       <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
         <v>22</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>23</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>24</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>25</v>
       </c>
-      <c r="M47" t="s">
-        <v>26</v>
-      </c>
       <c r="P47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="S47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="T47" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="X47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="Y47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="Z47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z47" s="4" t="s">
+      <c r="AA47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA47" s="4" t="s">
+      <c r="AB47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB47" s="5" t="s">
+      <c r="AC47" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -1768,7 +1807,7 @@
         <v>Biochar production</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1777,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -1785,23 +1824,22 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
         <v>39</v>
       </c>
-      <c r="D49">
-        <f>1/0.37</f>
-        <v>2.7027027027027026</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1845,30 +1883,29 @@
         <f>SQRT((LN(V49))^2+LN(W49)^2+LN(X49)^2+LN(Y49)^2+LN(Z49)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB49">
+      <c r="AB49" t="e">
         <f>LN(D49)</f>
-        <v>0.9942522733438669</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
         <v>39</v>
       </c>
-      <c r="D50">
-        <f t="shared" ref="D50:D51" si="9">1/0.37</f>
-        <v>2.7027027027027026</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -1912,30 +1949,29 @@
         <f>SQRT((LN(V50))^2+LN(W50)^2+LN(X50)^2+LN(Y50)^2+LN(Z50)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" t="e">
         <f>LN(D50)</f>
-        <v>0.9942522733438669</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
         <v>39</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="9"/>
-        <v>2.7027027027027026</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -1946,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
@@ -1971,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
@@ -2036,59 +2072,59 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
         <v>22</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>23</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>24</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" t="s">
-        <v>26</v>
-      </c>
       <c r="P60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="R60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="X60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X60" s="4" t="s">
+      <c r="Y60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="Z60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z60" s="4" t="s">
+      <c r="AA60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA60" s="4" t="s">
+      <c r="AB60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB60" s="5" t="s">
+      <c r="AC60" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
@@ -2101,7 +2137,7 @@
         <v>Charcrete production</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2110,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -2118,23 +2154,22 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62">
-        <f>111/1000</f>
-        <v>0.111</v>
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -2155,43 +2190,43 @@
         <v>3</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62" si="10">+VLOOKUP(P62, $P$2:$U$6, 2+W$10,0)</f>
+        <f t="shared" ref="V62" si="9">+VLOOKUP(P62, $P$2:$U$6, 2+W$10,0)</f>
         <v>1.2</v>
       </c>
       <c r="W62">
-        <f t="shared" ref="W62" si="11">+VLOOKUP(Q62, $P$2:$U$6, 2+X$10,0)</f>
+        <f t="shared" ref="W62" si="10">+VLOOKUP(Q62, $P$2:$U$6, 2+X$10,0)</f>
         <v>1.2</v>
       </c>
       <c r="X62">
-        <f t="shared" ref="X62" si="12">+VLOOKUP(R62, $P$2:$U$6, 2+Y$10,0)</f>
+        <f t="shared" ref="X62" si="11">+VLOOKUP(R62, $P$2:$U$6, 2+Y$10,0)</f>
         <v>1.5</v>
       </c>
       <c r="Y62">
-        <f t="shared" ref="Y62" si="13">+VLOOKUP(S62, $P$2:$U$6, 2+Z$10,0)</f>
+        <f t="shared" ref="Y62" si="12">+VLOOKUP(S62, $P$2:$U$6, 2+Z$10,0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62" si="14">+VLOOKUP(T62, $P$2:$U$6, 2+AA$10,0)</f>
+        <f t="shared" ref="Z62" si="13">+VLOOKUP(T62, $P$2:$U$6, 2+AA$10,0)</f>
         <v>1.2</v>
       </c>
       <c r="AA62">
         <f>SQRT((LN(V62))^2+LN(W62)^2+LN(X62)^2+LN(Y62)^2+LN(Z62)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB62">
+      <c r="AB62" t="e">
         <f>LN(D62)</f>
-        <v>-2.1982250776698029</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
         <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
       </c>
       <c r="D63">
         <v>857</v>
@@ -2200,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -2208,22 +2243,22 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
       <c r="C64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64">
-        <v>5.4</v>
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
@@ -2231,23 +2266,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65">
-        <f>185/1000</f>
-        <v>0.185</v>
+      <c r="D65" t="s">
+        <v>84</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -2255,13 +2289,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <v>857</v>
@@ -2270,7 +2304,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -2278,22 +2312,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67">
-        <v>4.37</v>
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>85</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
@@ -2301,22 +2335,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68">
-        <v>0.2</v>
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
@@ -2324,22 +2358,45 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
       </c>
       <c r="D69">
-        <v>325.60000000000002</v>
+        <v>347</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
         <v>18</v>
       </c>
-      <c r="H69" t="s">
-        <v>73</v>
+      <c r="H70" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="75">
   <si>
     <t>cutoff</t>
   </si>
@@ -233,12 +233,6 @@
     <t>market for sand</t>
   </si>
   <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
     <t>market for plasticiser, for concrete, based on sulfonated melamine formaldehyde</t>
   </si>
   <si>
@@ -264,36 +258,6 @@
   </si>
   <si>
     <t>cement, Portland</t>
-  </si>
-  <si>
-    <t>0,15739</t>
-  </si>
-  <si>
-    <t>0,047136</t>
-  </si>
-  <si>
-    <t>0,01</t>
-  </si>
-  <si>
-    <t>0,108</t>
-  </si>
-  <si>
-    <t>0,198</t>
-  </si>
-  <si>
-    <t>2,70</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>0,185</t>
-  </si>
-  <si>
-    <t>4,37</t>
-  </si>
-  <si>
-    <t>325,6</t>
   </si>
 </sst>
 </file>
@@ -648,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -957,8 +921,8 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>77</v>
+      <c r="D13">
+        <v>0.15739</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -1008,9 +972,9 @@
         <f>SQRT((LN(V13))^2+LN(W13)^2+LN(X13)^2+LN(Y13)^2+LN(Z13)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB13" t="e">
+      <c r="AB13">
         <f>LN(D13)</f>
-        <v>#VALUE!</v>
+        <v>-1.8490284774186274</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -1023,8 +987,8 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
-        <v>78</v>
+      <c r="D14">
+        <v>4.7135999999999997E-2</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -1465,8 +1429,8 @@
       <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" t="s">
-        <v>79</v>
+      <c r="D36">
+        <v>0.01</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -1516,17 +1480,17 @@
         <f>SQRT((LN(V36))^2+LN(W36)^2+LN(X36)^2+LN(Y36)^2+LN(Z36)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB36" t="e">
+      <c r="AB36">
         <f>LN(D36)</f>
-        <v>#VALUE!</v>
+        <v>-4.6051701859880909</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" t="s">
-        <v>80</v>
+      <c r="D37">
+        <v>0.108</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -1579,17 +1543,17 @@
         <f>SQRT((LN(V37))^2+LN(W37)^2+LN(X37)^2+LN(Y37)^2+LN(Z37)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB37" t="e">
+      <c r="AB37">
         <f>LN(D37)</f>
-        <v>#VALUE!</v>
+        <v>-2.2256240518579173</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>81</v>
+      <c r="D38">
+        <v>0.19800000000000001</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -1642,9 +1606,9 @@
         <f>SQRT((LN(V38))^2+LN(W38)^2+LN(X38)^2+LN(Y38)^2+LN(Z38)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB38" t="e">
+      <c r="AB38">
         <f>LN(D38)</f>
-        <v>#VALUE!</v>
+        <v>-1.6194882482876019</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
@@ -1832,8 +1796,8 @@
       <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
-        <v>82</v>
+      <c r="D49">
+        <v>2.7</v>
       </c>
       <c r="E49" t="s">
         <v>39</v>
@@ -1883,9 +1847,9 @@
         <f>SQRT((LN(V49))^2+LN(W49)^2+LN(X49)^2+LN(Y49)^2+LN(Z49)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB49" t="e">
+      <c r="AB49">
         <f>LN(D49)</f>
-        <v>#VALUE!</v>
+        <v>0.99325177301028345</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
@@ -1898,8 +1862,8 @@
       <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
-        <v>82</v>
+      <c r="D50">
+        <v>2.7</v>
       </c>
       <c r="E50" t="s">
         <v>39</v>
@@ -1949,9 +1913,9 @@
         <f>SQRT((LN(V50))^2+LN(W50)^2+LN(X50)^2+LN(Y50)^2+LN(Z50)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB50" t="e">
+      <c r="AB50">
         <f>LN(D50)</f>
-        <v>#VALUE!</v>
+        <v>0.99325177301028345</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
@@ -1964,8 +1928,8 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" t="s">
-        <v>82</v>
+      <c r="D51">
+        <v>2.7</v>
       </c>
       <c r="E51" t="s">
         <v>39</v>
@@ -2162,8 +2126,8 @@
       <c r="C62" t="s">
         <v>38</v>
       </c>
-      <c r="D62" t="s">
-        <v>83</v>
+      <c r="D62">
+        <v>18.3</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -2213,9 +2177,9 @@
         <f>SQRT((LN(V62))^2+LN(W62)^2+LN(X62)^2+LN(Y62)^2+LN(Z62)^2)</f>
         <v>0.52269439874826651</v>
       </c>
-      <c r="AB62" t="e">
+      <c r="AB62">
         <f>LN(D62)</f>
-        <v>#VALUE!</v>
+        <v>2.9069010598473755</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
@@ -2251,8 +2215,8 @@
       <c r="C64" t="s">
         <v>38</v>
       </c>
-      <c r="D64" t="s">
-        <v>66</v>
+      <c r="D64">
+        <v>5.4</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -2274,8 +2238,8 @@
       <c r="C65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>84</v>
+      <c r="D65">
+        <v>0.185</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -2312,16 +2276,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
+      <c r="D67">
+        <v>4.37</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -2335,19 +2299,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
-      <c r="D68" t="s">
-        <v>67</v>
+      <c r="D68">
+        <v>0.2</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -2358,10 +2322,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
@@ -2381,10 +2345,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="D70">
+        <v>325.60000000000002</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -2396,7 +2360,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
   <si>
     <t>cutoff</t>
   </si>
@@ -113,33 +113,6 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>Indicator value</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Completeness</t>
-  </si>
-  <si>
-    <t>Temporal correlation</t>
-  </si>
-  <si>
-    <t>Geographical correlation</t>
-  </si>
-  <si>
-    <t>Technical correlation</t>
-  </si>
-  <si>
-    <t>sigma2</t>
-  </si>
-  <si>
-    <t>µ</t>
-  </si>
-  <si>
-    <t>Triangular distribution</t>
-  </si>
-  <si>
     <t>biosphere3</t>
   </si>
   <si>
@@ -164,9 +137,6 @@
     <t>wood chipping, mobile chipper, at forest road</t>
   </si>
   <si>
-    <t>wood chipping, chipper, mobile, diesel, at forest road'</t>
-  </si>
-  <si>
     <t>RER</t>
   </si>
   <si>
@@ -258,34 +228,22 @@
   </si>
   <si>
     <t>cement, Portland</t>
+  </si>
+  <si>
+    <t>wood chipping, chipper, mobile, diesel, at forest road</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -304,32 +262,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,16 +549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="58.21875" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
@@ -628,87 +567,31 @@
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="P3" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="T3" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="U3" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -716,60 +599,24 @@
         <f>B4</f>
         <v>Woodchip production</v>
       </c>
-      <c r="P5" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -777,35 +624,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -845,48 +677,8 @@
       <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>B5</f>
         <v>Woodchip production</v>
@@ -896,119 +688,82 @@
         <v>Woodchip production</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>0.15739</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ref="V13:Z13" si="0">+VLOOKUP(P13, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA13">
-        <f>SQRT((LN(V13))^2+LN(W13)^2+LN(X13)^2+LN(Y13)^2+LN(Z13)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB13">
-        <f>LN(D13)</f>
-        <v>-1.8490284774186274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>4.7135999999999997E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +772,7 @@
         <v>Woodchip transport</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1025,15 +780,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1041,35 +796,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>2</v>
-      </c>
-      <c r="Z22">
-        <v>3</v>
-      </c>
-      <c r="AA22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1109,48 +849,8 @@
       <c r="M23" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>B17</f>
         <v>Woodchip transport</v>
@@ -1160,99 +860,59 @@
         <v>Woodchip transport</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="R25">
-        <v>5</v>
-      </c>
-      <c r="S25">
-        <v>5</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <f t="shared" ref="V25:Z25" si="1">+VLOOKUP(P25, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA25">
-        <f>SQRT((LN(V25))^2+LN(W25)^2+LN(X25)^2+LN(Y25)^2+LN(Z25)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB25">
-        <f>LN(D25)</f>
-        <v>5.2983173665480363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +921,7 @@
         <v>Pyrolysis</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1269,15 +929,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1285,35 +945,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>2</v>
-      </c>
-      <c r="Z33">
-        <v>3</v>
-      </c>
-      <c r="AA33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1353,48 +998,8 @@
       <c r="M34" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>B28</f>
         <v>Pyrolysis</v>
@@ -1404,22 +1009,22 @@
         <v>Pyrolysis</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>0.01</v>
@@ -1436,58 +1041,15 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>5</v>
-      </c>
-      <c r="S36">
-        <v>5</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="V36">
-        <f t="shared" ref="V36:Z38" si="2">+VLOOKUP(P36, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA36">
-        <f>SQRT((LN(V36))^2+LN(W36)^2+LN(X36)^2+LN(Y36)^2+LN(Z36)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB36">
-        <f>LN(D36)</f>
-        <v>-4.6051701859880909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>0.108</v>
@@ -1496,61 +1058,21 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
-        <v>5</v>
-      </c>
-      <c r="R37">
-        <v>5</v>
-      </c>
-      <c r="S37">
-        <v>5</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ref="V37" si="3">+VLOOKUP(P37, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W37">
-        <f t="shared" ref="W37" si="4">+VLOOKUP(Q37, $P$2:$U$6, 2+X$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="X37">
-        <f t="shared" ref="X37" si="5">+VLOOKUP(R37, $P$2:$U$6, 2+Y$10,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ref="Y37" si="6">+VLOOKUP(S37, $P$2:$U$6, 2+Z$10,0)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" ref="Z37" si="7">+VLOOKUP(T37, $P$2:$U$6, 2+AA$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="AA37">
-        <f>SQRT((LN(V37))^2+LN(W37)^2+LN(X37)^2+LN(Y37)^2+LN(Z37)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB37">
-        <f>LN(D37)</f>
-        <v>-2.2256240518579173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>0.19800000000000001</v>
@@ -1559,67 +1081,27 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38">
-        <v>4</v>
-      </c>
-      <c r="Q38">
-        <v>5</v>
-      </c>
-      <c r="R38">
-        <v>5</v>
-      </c>
-      <c r="S38">
-        <v>5</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA38">
-        <f>SQRT((LN(V38))^2+LN(W38)^2+LN(X38)^2+LN(Y38)^2+LN(Z38)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB38">
-        <f>LN(D38)</f>
-        <v>-1.6194882482876019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1110,7 @@
         <v>Biochar production</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1636,15 +1118,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1652,35 +1134,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>2</v>
-      </c>
-      <c r="Z46">
-        <v>3</v>
-      </c>
-      <c r="AA46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1720,48 +1187,8 @@
       <c r="M47" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>B41</f>
         <v>Biochar production</v>
@@ -1771,7 +1198,7 @@
         <v>Biochar production</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1780,176 +1207,99 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>2.7</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="P49">
-        <v>4</v>
-      </c>
-      <c r="Q49">
-        <v>5</v>
-      </c>
-      <c r="R49">
-        <v>5</v>
-      </c>
-      <c r="S49">
-        <v>5</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="V49">
-        <f t="shared" ref="V49:Z50" si="8">+VLOOKUP(P49, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA49">
-        <f>SQRT((LN(V49))^2+LN(W49)^2+LN(X49)^2+LN(Y49)^2+LN(Z49)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB49">
-        <f>LN(D49)</f>
-        <v>0.99325177301028345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>2.7</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50">
-        <v>5</v>
-      </c>
-      <c r="S50">
-        <v>5</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA50">
-        <f>SQRT((LN(V50))^2+LN(W50)^2+LN(X50)^2+LN(Y50)^2+LN(Z50)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB50">
-        <f>LN(D50)</f>
-        <v>0.99325177301028345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>2.7</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1308,7 @@
         <v>Charcrete production</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1966,15 +1316,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1990,27 +1340,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>1</v>
-      </c>
-      <c r="Y59">
-        <v>2</v>
-      </c>
-      <c r="Z59">
-        <v>3</v>
-      </c>
-      <c r="AA59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2050,48 +1385,8 @@
       <c r="M60" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>B54</f>
         <v>Charcrete production</v>
@@ -2101,7 +1396,7 @@
         <v>Charcrete production</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2110,21 +1405,21 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D62">
         <v>18.3</v>
@@ -2133,64 +1428,24 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
-      <c r="P62">
-        <v>4</v>
-      </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
-      <c r="R62">
-        <v>5</v>
-      </c>
-      <c r="S62">
-        <v>5</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="V62">
-        <f t="shared" ref="V62" si="9">+VLOOKUP(P62, $P$2:$U$6, 2+W$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="W62">
-        <f t="shared" ref="W62" si="10">+VLOOKUP(Q62, $P$2:$U$6, 2+X$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="X62">
-        <f t="shared" ref="X62" si="11">+VLOOKUP(R62, $P$2:$U$6, 2+Y$10,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" ref="Y62" si="12">+VLOOKUP(S62, $P$2:$U$6, 2+Z$10,0)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" ref="Z62" si="13">+VLOOKUP(T62, $P$2:$U$6, 2+AA$10,0)</f>
-        <v>1.2</v>
-      </c>
-      <c r="AA62">
-        <f>SQRT((LN(V62))^2+LN(W62)^2+LN(X62)^2+LN(Y62)^2+LN(Z62)^2)</f>
-        <v>0.52269439874826651</v>
-      </c>
-      <c r="AB62">
-        <f>LN(D62)</f>
-        <v>2.9069010598473755</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D63">
         <v>857</v>
@@ -2199,21 +1454,24 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D64">
         <v>5.4</v>
@@ -2222,21 +1480,24 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <v>0.185</v>
@@ -2245,21 +1506,24 @@
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D66">
         <v>857</v>
@@ -2268,18 +1532,21 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -2291,18 +1558,21 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
@@ -2311,24 +1581,27 @@
         <v>0.2</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D69">
         <v>347</v>
@@ -2337,15 +1610,18 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>325.60000000000002</v>
@@ -2354,13 +1630,16 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -152,9 +152,6 @@
     <t>transport, freight, lorry, unspecified</t>
   </si>
   <si>
-    <t>ton.km</t>
-  </si>
-  <si>
     <t>Pyrolysis</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>wood chipping, chipper, mobile, diesel, at forest road</t>
+  </si>
+  <si>
+    <t>ton kilometer</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -889,7 +889,7 @@
         <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>32</v>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>0.108</v>
@@ -1064,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38">
         <v>0.19800000000000001</v>
@@ -1087,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
         <v>27</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1413,19 +1413,20 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
       </c>
       <c r="D62">
-        <v>18.3</v>
+        <f>18.3/1000</f>
+        <v>1.83E-2</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
         <v>27</v>
@@ -1439,13 +1440,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
         <v>51</v>
-      </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
       </c>
       <c r="D63">
         <v>857</v>
@@ -1465,10 +1466,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
         <v>47</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -1491,19 +1492,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
         <v>53</v>
       </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
       <c r="D65">
-        <v>0.185</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
         <v>32</v>
@@ -1517,13 +1518,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66">
         <v>857</v>
@@ -1543,10 +1544,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
         <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -1569,10 +1570,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
         <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
@@ -1581,7 +1582,7 @@
         <v>0.2</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
         <v>32</v>
@@ -1595,13 +1596,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <v>347</v>
@@ -1621,7 +1622,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>325.60000000000002</v>
@@ -1636,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I70">
         <v>0</v>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -266,9 +266,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,8 +1625,9 @@
       <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="D70">
-        <v>325.60000000000002</v>
+      <c r="D70" s="2">
+        <f>325.6*0.0183</f>
+        <v>5.9584800000000007</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="91">
   <si>
     <t>cutoff</t>
   </si>
@@ -231,19 +232,113 @@
   </si>
   <si>
     <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>Activity name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>Charcrete</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>5% Biochar</t>
+  </si>
+  <si>
+    <t>Biochar input</t>
+  </si>
+  <si>
+    <t>Kg/m3</t>
+  </si>
+  <si>
+    <t>Electricity input</t>
+  </si>
+  <si>
+    <t>(Kwh/m3)</t>
+  </si>
+  <si>
+    <t>Diesel input (buildling machine)</t>
+  </si>
+  <si>
+    <t>MJ/m3</t>
+  </si>
+  <si>
+    <t>Cement input</t>
+  </si>
+  <si>
+    <t>Sand input</t>
+  </si>
+  <si>
+    <t>Gravel input</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Fly ash</t>
+  </si>
+  <si>
+    <t>Charcrete_biochar5%</t>
+  </si>
+  <si>
+    <t>Charcrete_biochar7.5%</t>
+  </si>
+  <si>
+    <t>Charcrete_biochar10%</t>
+  </si>
+  <si>
+    <t>charcrete 10%</t>
+  </si>
+  <si>
+    <t>charcrete 15%</t>
+  </si>
+  <si>
+    <t>charcrete 20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -262,14 +357,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,9 +1532,8 @@
       <c r="A54" t="s">
         <v>3</v>
       </c>
-      <c r="B54" t="str">
-        <f>B53</f>
-        <v>Charcrete production</v>
+      <c r="B54" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1390,11 +1617,11 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>B54</f>
-        <v>Charcrete production</v>
+        <v>charcrete 10%</v>
       </c>
       <c r="B61" t="str">
         <f>B54</f>
-        <v>Charcrete production</v>
+        <v>charcrete 10%</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -1491,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -1517,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -1543,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -1569,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -1595,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -1621,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -1642,6 +1869,710 @@
         <v>61</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f>B73</f>
+        <v>charcrete 15%</v>
+      </c>
+      <c r="B80" t="str">
+        <f>B73</f>
+        <v>charcrete 15%</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82">
+        <v>1000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <v>5.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <v>938</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="2">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" ref="D89" si="0">325.6*D81</f>
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f>B92</f>
+        <v>charcrete 20%</v>
+      </c>
+      <c r="B99" t="str">
+        <f>B92</f>
+        <v>charcrete 20%</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100">
+        <f>20/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102">
+        <v>5.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103">
+        <v>156</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104">
+        <v>938</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>6.6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>0.2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" s="2">
+        <v>173.4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" ref="D108" si="1">325.6*D100</f>
+        <v>6.5120000000000005</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108">
         <v>0</v>
       </c>
     </row>
@@ -1649,4 +2580,438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <f>10/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <f>20/1000</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>5.5</v>
+      </c>
+      <c r="D5">
+        <v>5.5</v>
+      </c>
+      <c r="E5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>938</v>
+      </c>
+      <c r="D7">
+        <v>938</v>
+      </c>
+      <c r="E7">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>3.2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>186.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2">
+        <v>173.4</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <f>325.6*C3</f>
+        <v>3.2560000000000002</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:I11" si="0">325.6*D3</f>
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5120000000000005</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="11">
+        <v>200</v>
+      </c>
+      <c r="D22" s="11">
+        <v>186.8</v>
+      </c>
+      <c r="E22" s="11">
+        <v>180</v>
+      </c>
+      <c r="F22" s="11">
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="11">
+        <v>938</v>
+      </c>
+      <c r="D23" s="11">
+        <v>938</v>
+      </c>
+      <c r="E23" s="11">
+        <v>938</v>
+      </c>
+      <c r="F23" s="11">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="11">
+        <v>156</v>
+      </c>
+      <c r="D25" s="11">
+        <v>156</v>
+      </c>
+      <c r="E25" s="11">
+        <v>156</v>
+      </c>
+      <c r="F25" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="11">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11">
+        <v>40</v>
+      </c>
+      <c r="E27" s="11">
+        <v>40</v>
+      </c>
+      <c r="F27" s="11">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
+    <sheet name="scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="90">
   <si>
     <t>cutoff</t>
   </si>
@@ -291,28 +292,28 @@
     <t>Fly ash</t>
   </si>
   <si>
-    <t>Charcrete_biochar5%</t>
-  </si>
-  <si>
     <t>Charcrete_biochar7.5%</t>
   </si>
   <si>
     <t>Charcrete_biochar10%</t>
   </si>
   <si>
+    <t>charcrete 5%</t>
+  </si>
+  <si>
     <t>charcrete 10%</t>
   </si>
   <si>
-    <t>charcrete 15%</t>
-  </si>
-  <si>
-    <t>charcrete 20%</t>
+    <t>charcrete 7.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -498,6 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A57" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1617,11 +1619,11 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>B54</f>
-        <v>charcrete 10%</v>
+        <v>charcrete 5%</v>
       </c>
       <c r="B61" t="str">
         <f>B54</f>
-        <v>charcrete 10%</v>
+        <v>charcrete 5%</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -1649,9 +1651,9 @@
       <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="D62">
-        <f>18.3/1000</f>
-        <v>1.83E-2</v>
+      <c r="D62" s="15">
+        <f>10/1000</f>
+        <v>0.01</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -1677,7 +1679,7 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -1703,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="D64">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -1729,7 +1731,7 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -1755,7 +1757,7 @@
         <v>51</v>
       </c>
       <c r="D66">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -1781,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="D67">
-        <v>4.37</v>
+        <v>3.2</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -1833,7 +1835,7 @@
         <v>53</v>
       </c>
       <c r="D69">
-        <v>347</v>
+        <v>186.8</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -1853,8 +1855,8 @@
         <v>60</v>
       </c>
       <c r="D70" s="2">
-        <f>325.6*0.0183</f>
-        <v>5.9584800000000007</v>
+        <f>325.6*D62</f>
+        <v>3.2560000000000002</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -1969,11 +1971,11 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>B73</f>
-        <v>charcrete 15%</v>
+        <v>charcrete 7.5%</v>
       </c>
       <c r="B80" t="str">
         <f>B73</f>
-        <v>charcrete 15%</v>
+        <v>charcrete 7.5%</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -2237,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -2321,11 +2323,11 @@
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>B92</f>
-        <v>charcrete 20%</v>
+        <v>charcrete 10%</v>
       </c>
       <c r="B99" t="str">
         <f>B92</f>
-        <v>charcrete 20%</v>
+        <v>charcrete 10%</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -2584,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2604,13 +2606,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2620,13 +2625,16 @@
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
@@ -2637,15 +2645,18 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>15/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
@@ -2657,13 +2668,16 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4">
-        <v>1000</v>
+      <c r="C4" t="s">
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
         <v>1000</v>
       </c>
     </row>
@@ -2674,13 +2688,16 @@
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>5.5</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5">
         <v>5.5</v>
       </c>
       <c r="E5">
+        <v>5.5</v>
+      </c>
+      <c r="F5">
         <v>5.5</v>
       </c>
     </row>
@@ -2691,13 +2708,16 @@
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>156</v>
+      <c r="C6" t="s">
+        <v>53</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6">
         <v>156</v>
       </c>
     </row>
@@ -2708,13 +2728,16 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>938</v>
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
       <c r="D7">
         <v>938</v>
       </c>
       <c r="E7">
+        <v>938</v>
+      </c>
+      <c r="F7">
         <v>938</v>
       </c>
     </row>
@@ -2725,13 +2748,16 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>3.2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6.6</v>
       </c>
     </row>
@@ -2742,13 +2768,16 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
-        <v>0.2</v>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0.2</v>
       </c>
       <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
         <v>0.2</v>
       </c>
     </row>
@@ -2759,16 +2788,18 @@
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
         <v>186.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>180</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>173.4</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2777,241 +2808,255 @@
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2">
-        <f>325.6*C3</f>
+      <c r="D11" s="2">
+        <f>325.6*D3</f>
         <v>3.2560000000000002</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:I11" si="0">325.6*D3</f>
+      <c r="E11" s="2">
+        <f>325.6*E3</f>
         <v>4.8840000000000003</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
+      <c r="F11" s="2">
+        <f>325.6*F3</f>
         <v>6.5120000000000005</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="11">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="11">
-        <v>200</v>
-      </c>
-      <c r="D22" s="11">
-        <v>186.8</v>
-      </c>
-      <c r="E22" s="11">
-        <v>180</v>
-      </c>
-      <c r="F22" s="11">
-        <v>173.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="11">
-        <v>938</v>
-      </c>
-      <c r="D23" s="11">
-        <v>938</v>
-      </c>
-      <c r="E23" s="11">
-        <v>938</v>
-      </c>
-      <c r="F23" s="11">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="11">
-        <v>156</v>
-      </c>
-      <c r="D25" s="11">
-        <v>156</v>
-      </c>
-      <c r="E25" s="11">
-        <v>156</v>
-      </c>
-      <c r="F25" s="11">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="E26" s="11">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="11">
-        <v>40</v>
-      </c>
-      <c r="D27" s="11">
-        <v>40</v>
-      </c>
-      <c r="E27" s="11">
-        <v>40</v>
-      </c>
-      <c r="F27" s="11">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D17:F17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11">
+        <v>200</v>
+      </c>
+      <c r="D7" s="11">
+        <v>186.8</v>
+      </c>
+      <c r="E7" s="11">
+        <v>180</v>
+      </c>
+      <c r="F7" s="11">
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11">
+        <v>938</v>
+      </c>
+      <c r="D8" s="11">
+        <v>938</v>
+      </c>
+      <c r="E8" s="11">
+        <v>938</v>
+      </c>
+      <c r="F8" s="11">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11">
+        <v>156</v>
+      </c>
+      <c r="D10" s="11">
+        <v>156</v>
+      </c>
+      <c r="E10" s="11">
+        <v>156</v>
+      </c>
+      <c r="F10" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,13 @@
     <t>Charcrete_biochar10%</t>
   </si>
   <si>
-    <t>charcrete 5%</t>
-  </si>
-  <si>
-    <t>charcrete 10%</t>
-  </si>
-  <si>
-    <t>charcrete 7.5%</t>
+    <t>Charcrete production 5%</t>
+  </si>
+  <si>
+    <t>Charcrete production 7.5%</t>
+  </si>
+  <si>
+    <t>Charcrete production 10%</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1619,11 +1619,11 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>B54</f>
-        <v>charcrete 5%</v>
+        <v>Charcrete production 5%</v>
       </c>
       <c r="B61" t="str">
         <f>B54</f>
-        <v>charcrete 5%</v>
+        <v>Charcrete production 5%</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -1971,11 +1971,11 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>B73</f>
-        <v>charcrete 7.5%</v>
+        <v>Charcrete production 7.5%</v>
       </c>
       <c r="B80" t="str">
         <f>B73</f>
-        <v>charcrete 7.5%</v>
+        <v>Charcrete production 7.5%</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -2231,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -2323,11 +2323,11 @@
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>B92</f>
-        <v>charcrete 10%</v>
+        <v>Charcrete production 10%</v>
       </c>
       <c r="B99" t="str">
         <f>B92</f>
-        <v>charcrete 10%</v>
+        <v>Charcrete production 10%</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -2588,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="91">
   <si>
     <t>cutoff</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Fly ash</t>
+  </si>
+  <si>
+    <t>Charcrete_biochar5%</t>
   </si>
   <si>
     <t>Charcrete_biochar7.5%</t>
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="B82" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1879,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -1887,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2231,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -2239,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -2588,14 +2591,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2609,13 +2615,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2637,6 +2652,15 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2660,6 +2684,15 @@
         <f>20/1000</f>
         <v>0.02</v>
       </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2680,6 +2713,15 @@
       <c r="F4">
         <v>1000</v>
       </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2700,6 +2742,15 @@
       <c r="F5">
         <v>5.5</v>
       </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2720,6 +2771,15 @@
       <c r="F6">
         <v>156</v>
       </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2740,6 +2800,15 @@
       <c r="F7">
         <v>938</v>
       </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2760,6 +2829,15 @@
       <c r="F8">
         <v>6.6</v>
       </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2780,6 +2858,15 @@
       <c r="F9">
         <v>0.2</v>
       </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2800,9 +2887,15 @@
       <c r="F10" s="2">
         <v>173.4</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2820,9 +2913,15 @@
         <f>325.6*F3</f>
         <v>6.5120000000000005</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="88">
   <si>
     <t>cutoff</t>
   </si>
@@ -290,15 +290,6 @@
   </si>
   <si>
     <t>Fly ash</t>
-  </si>
-  <si>
-    <t>Charcrete_biochar5%</t>
-  </si>
-  <si>
-    <t>Charcrete_biochar7.5%</t>
-  </si>
-  <si>
-    <t>Charcrete_biochar10%</t>
   </si>
   <si>
     <t>Charcrete production 5%</t>
@@ -785,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98:G108"/>
+    <sheetView topLeftCell="B73" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1538,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1882,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -1890,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2234,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -2242,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -2592,13 +2583,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" customWidth="1"/>
@@ -2638,7 +2629,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="87">
   <si>
     <t>cutoff</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Biochar production</t>
-  </si>
-  <si>
-    <t>Charcrete production</t>
   </si>
   <si>
     <t>gravel, crushed</t>
@@ -959,7 +956,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1114,7 +1111,7 @@
         <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>32</v>
@@ -1521,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1529,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1664,13 +1661,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
         <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
       </c>
       <c r="D63">
         <v>1000</v>
@@ -1690,10 +1687,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
         <v>46</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -1716,13 +1713,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
         <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>53</v>
       </c>
       <c r="D65">
         <v>156</v>
@@ -1742,13 +1739,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>938</v>
@@ -1768,10 +1765,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
         <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -1794,10 +1791,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
         <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
@@ -1806,7 +1803,7 @@
         <v>0.2</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
         <v>32</v>
@@ -1820,13 +1817,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
         <v>62</v>
       </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69">
         <v>186.8</v>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="2">
         <f>325.6*D62</f>
@@ -1862,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -1873,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -1881,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2016,13 +2013,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
         <v>50</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s">
-        <v>51</v>
       </c>
       <c r="D82">
         <v>1000</v>
@@ -2042,10 +2039,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
         <v>46</v>
-      </c>
-      <c r="B83" t="s">
-        <v>47</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -2068,13 +2065,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
         <v>52</v>
-      </c>
-      <c r="B84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" t="s">
-        <v>53</v>
       </c>
       <c r="D84">
         <v>156</v>
@@ -2094,13 +2091,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D85">
         <v>938</v>
@@ -2120,10 +2117,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s">
         <v>55</v>
-      </c>
-      <c r="B86" t="s">
-        <v>56</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
@@ -2146,10 +2143,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
         <v>57</v>
-      </c>
-      <c r="B87" t="s">
-        <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -2158,7 +2155,7 @@
         <v>0.2</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F87" t="s">
         <v>32</v>
@@ -2172,13 +2169,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
         <v>62</v>
       </c>
-      <c r="B88" t="s">
-        <v>63</v>
-      </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="2">
         <v>180</v>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ref="D89" si="0">325.6*D81</f>
@@ -2214,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -2225,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -2233,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -2368,13 +2365,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
         <v>50</v>
-      </c>
-      <c r="B101" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" t="s">
-        <v>51</v>
       </c>
       <c r="D101">
         <v>1000</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
         <v>46</v>
-      </c>
-      <c r="B102" t="s">
-        <v>47</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -2420,13 +2417,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
         <v>52</v>
-      </c>
-      <c r="B103" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" t="s">
-        <v>53</v>
       </c>
       <c r="D103">
         <v>156</v>
@@ -2446,13 +2443,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D104">
         <v>938</v>
@@ -2472,10 +2469,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
         <v>55</v>
-      </c>
-      <c r="B105" t="s">
-        <v>56</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -2498,10 +2495,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
         <v>57</v>
-      </c>
-      <c r="B106" t="s">
-        <v>58</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
@@ -2510,7 +2507,7 @@
         <v>0.2</v>
       </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -2524,13 +2521,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" t="s">
         <v>62</v>
       </c>
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D107" s="2">
         <v>173.4</v>
@@ -2550,7 +2547,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ref="D108" si="1">325.6*D100</f>
@@ -2566,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -2582,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2597,7 +2594,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2606,13 +2603,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -2626,10 +2623,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -2687,13 +2684,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -2716,10 +2713,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2745,13 +2742,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
       <c r="D6">
         <v>156</v>
@@ -2774,13 +2771,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>938</v>
@@ -2803,10 +2800,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -2832,10 +2829,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -2850,7 +2847,7 @@
         <v>0.2</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -2861,13 +2858,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>186.8</v>
@@ -2890,7 +2887,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <f>325.6*D3</f>
@@ -2925,7 +2922,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,27 +2931,27 @@
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E3" s="8">
         <v>7.4999999999999997E-2</v>
@@ -2965,10 +2962,10 @@
     </row>
     <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -2985,10 +2982,10 @@
     </row>
     <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C5" s="11">
         <v>5.5</v>
@@ -3005,10 +3002,10 @@
     </row>
     <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="11">
         <v>0.2</v>
@@ -3025,10 +3022,10 @@
     </row>
     <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11">
         <v>200</v>
@@ -3045,10 +3042,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="11">
         <v>938</v>
@@ -3065,10 +3062,10 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11">
         <v>1000</v>
@@ -3085,10 +3082,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11">
         <v>156</v>
@@ -3105,10 +3102,10 @@
     </row>
     <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>
@@ -3125,10 +3122,10 @@
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11">
         <v>40</v>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlotte.roux\Documents\PERSO\Brightway Autumn School 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mija.frossard\PycharmProjects\Charcrete-LCA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7626C-5051-4162-BC9B-F9623AF44016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
     <sheet name="scenario" sheetId="2" r:id="rId2"/>
     <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -301,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -452,7 +455,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -490,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,17 +773,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
@@ -948,7 +951,14 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J13" s="15">
+        <f>LN(D13)</f>
+        <v>-1.8490284774186274</v>
+      </c>
+      <c r="K13">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -974,7 +984,14 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J14" s="15">
+        <f>LN(D14)</f>
+        <v>-3.0547182387019172</v>
+      </c>
+      <c r="K14">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1120,11 +1137,15 @@
         <v>13</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L26" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="15">
+        <f>LN(D25)</f>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="K25">
+        <v>2.4E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1268,6 +1289,16 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="15">
+        <f>LN(D36)</f>
+        <v>-4.6051701859880909</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1289,7 +1320,14 @@
         <v>42</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J37" s="15">
+        <f>LN(D37)</f>
+        <v>-2.2256240518579173</v>
+      </c>
+      <c r="K37">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1312,7 +1350,14 @@
         <v>42</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J38" s="15">
+        <f>LN(D38)</f>
+        <v>-1.6194882482876019</v>
+      </c>
+      <c r="K38">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -1458,7 +1503,14 @@
         <v>13</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J49" s="15">
+        <f>LN(D49)</f>
+        <v>0.99325177301028345</v>
+      </c>
+      <c r="K49">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -1484,7 +1536,14 @@
         <v>13</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J50" s="15">
+        <f>LN(D50)</f>
+        <v>0.99325177301028345</v>
+      </c>
+      <c r="K50">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -1510,7 +1569,14 @@
         <v>13</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J51" s="15">
+        <f>LN(D51)</f>
+        <v>0.99325177301028345</v>
+      </c>
+      <c r="K51">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -1642,7 +1708,7 @@
       <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="11">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
@@ -1656,7 +1722,14 @@
         <v>13</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J62" s="15">
+        <f>LN(D62)</f>
+        <v>-4.6051701859880909</v>
+      </c>
+      <c r="K62">
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -1682,7 +1755,14 @@
         <v>13</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J63" s="15">
+        <f>LN(D63)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="K63">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -1708,7 +1788,14 @@
         <v>13</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" ref="J64:J70" si="0">LN(D64)</f>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="K64">
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -1734,7 +1821,14 @@
         <v>13</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J65" s="15">
+        <f t="shared" si="0"/>
+        <v>5.0498560072495371</v>
+      </c>
+      <c r="K65">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -1760,7 +1854,14 @@
         <v>13</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J66" s="15">
+        <f t="shared" si="0"/>
+        <v>6.8437499490062246</v>
+      </c>
+      <c r="K66">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -1786,7 +1887,14 @@
         <v>13</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J67" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1631508098056809</v>
+      </c>
+      <c r="K67">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -1812,7 +1920,14 @@
         <v>13</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J68" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="K68">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -1838,6 +1953,13 @@
         <v>13</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" s="15">
+        <f t="shared" si="0"/>
+        <v>5.2300385257947424</v>
+      </c>
+      <c r="K69">
         <v>0</v>
       </c>
     </row>
@@ -1845,7 +1967,7 @@
       <c r="A70" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <f>325.6*D62</f>
         <v>3.2560000000000002</v>
       </c>
@@ -1862,7 +1984,14 @@
         <v>60</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1804994481402939</v>
+      </c>
+      <c r="K70">
+        <v>0.1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -1984,7 +2113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -2008,10 +2137,17 @@
         <v>13</v>
       </c>
       <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J81" s="15">
+        <f>LN(D81)</f>
+        <v>-4.1997050778799272</v>
+      </c>
+      <c r="K81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -2034,10 +2170,17 @@
         <v>13</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" ref="J82:J89" si="1">LN(D82)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="K82">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2060,10 +2203,17 @@
         <v>13</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="K83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -2086,10 +2236,17 @@
         <v>13</v>
       </c>
       <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0498560072495371</v>
+      </c>
+      <c r="K84">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -2112,10 +2269,17 @@
         <v>13</v>
       </c>
       <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="15">
+        <f t="shared" si="1"/>
+        <v>6.8437499490062246</v>
+      </c>
+      <c r="K85">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -2138,10 +2302,17 @@
         <v>13</v>
       </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J86" s="15">
+        <f t="shared" si="1"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="K86">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>56</v>
       </c>
@@ -2164,10 +2335,17 @@
         <v>13</v>
       </c>
       <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J87" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="K87">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2355,7 @@
       <c r="C88" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>180</v>
       </c>
       <c r="E88" t="s">
@@ -2190,15 +2368,22 @@
         <v>13</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" s="15">
+        <f t="shared" si="1"/>
+        <v>5.1929568508902104</v>
+      </c>
+      <c r="K88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="2">
-        <f t="shared" ref="D89" si="0">325.6*D81</f>
+      <c r="D89" s="1">
+        <f t="shared" ref="D89" si="2">325.6*D81</f>
         <v>4.8840000000000003</v>
       </c>
       <c r="E89" t="s">
@@ -2214,10 +2399,17 @@
         <v>60</v>
       </c>
       <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5859645562484583</v>
+      </c>
+      <c r="K89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2249,7 +2441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2360,8 +2552,16 @@
         <v>13</v>
       </c>
       <c r="I100">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J100" s="15">
+        <f>LN(D100)</f>
+        <v>-3.912023005428146</v>
+      </c>
+      <c r="K100">
+        <v>0.1</v>
+      </c>
+      <c r="M100" s="15"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -2386,7 +2586,14 @@
         <v>13</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J101" s="15">
+        <f t="shared" ref="J101:J108" si="3">LN(D101)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="K101">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -2412,7 +2619,14 @@
         <v>13</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J102" s="15">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="K102">
+        <v>0.1</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -2438,7 +2652,14 @@
         <v>13</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J103" s="15">
+        <f t="shared" si="3"/>
+        <v>5.0498560072495371</v>
+      </c>
+      <c r="K103">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -2464,7 +2685,14 @@
         <v>13</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J104" s="15">
+        <f t="shared" si="3"/>
+        <v>6.8437499490062246</v>
+      </c>
+      <c r="K104">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -2490,7 +2718,14 @@
         <v>13</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J105" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8870696490323797</v>
+      </c>
+      <c r="K105">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -2516,7 +2751,14 @@
         <v>13</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="K106">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -2529,7 +2771,7 @@
       <c r="C107" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>173.4</v>
       </c>
       <c r="E107" t="s">
@@ -2542,6 +2784,13 @@
         <v>13</v>
       </c>
       <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="3"/>
+        <v>5.1556010643464418</v>
+      </c>
+      <c r="K107">
         <v>0</v>
       </c>
     </row>
@@ -2549,8 +2798,8 @@
       <c r="A108" t="s">
         <v>59</v>
       </c>
-      <c r="D108" s="2">
-        <f t="shared" ref="D108" si="1">325.6*D100</f>
+      <c r="D108" s="1">
+        <f t="shared" ref="D108" si="4">325.6*D100</f>
         <v>6.5120000000000005</v>
       </c>
       <c r="E108" t="s">
@@ -2566,7 +2815,14 @@
         <v>60</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J108" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8736466287002393</v>
+      </c>
+      <c r="K108">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2576,11 +2832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2916,7 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
@@ -2869,10 +3125,10 @@
       <c r="D10">
         <v>186.8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>180</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>173.4</v>
       </c>
       <c r="G10" t="s">
@@ -2889,15 +3145,15 @@
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>325.6*D3</f>
         <v>3.2560000000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>325.6*E3</f>
         <v>4.8840000000000003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f>325.6*F3</f>
         <v>6.5120000000000005</v>
       </c>
@@ -2918,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,11 +3185,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2943,200 +3199,200 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>15</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>5.5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>5.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5.5</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>200</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>186.8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>180</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>173.4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>938</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>938</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>938</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>938</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>1000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1000</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>156</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>156</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>156</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>3.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>6.6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>40</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>40</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>40</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>40</v>
       </c>
     </row>

--- a/data/Charcrete_database_38.xlsx
+++ b/data/Charcrete_database_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mija.frossard\PycharmProjects\Charcrete-LCA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7626C-5051-4162-BC9B-F9623AF44016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D31A8-4E62-44F9-8BA9-32F36DE7925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,6 +484,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -493,7 +494,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +953,7 @@
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <f>LN(D13)</f>
         <v>-1.8490284774186274</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <f>LN(D14)</f>
         <v>-3.0547182387019172</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="I25">
         <v>2</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="12">
         <f>LN(D25)</f>
         <v>5.2983173665480363</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="I36">
         <v>2</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="12">
         <f>LN(D36)</f>
         <v>-4.6051701859880909</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I37">
         <v>2</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="12">
         <f>LN(D37)</f>
         <v>-2.2256240518579173</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="12">
         <f>LN(D38)</f>
         <v>-1.6194882482876019</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="I49">
         <v>2</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="12">
         <f>LN(D49)</f>
         <v>0.99325177301028345</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="I50">
         <v>2</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="12">
         <f>LN(D50)</f>
         <v>0.99325177301028345</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="I51">
         <v>2</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="12">
         <f>LN(D51)</f>
         <v>0.99325177301028345</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="I62">
         <v>2</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="12">
         <f>LN(D62)</f>
         <v>-4.6051701859880909</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="I63">
         <v>2</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="12">
         <f>LN(D63)</f>
         <v>6.9077552789821368</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="I64">
         <v>2</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="12">
         <f t="shared" ref="J64:J70" si="0">LN(D64)</f>
         <v>1.7047480922384253</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="I65">
         <v>2</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="12">
         <f t="shared" si="0"/>
         <v>5.0498560072495371</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="I66">
         <v>2</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="12">
         <f t="shared" si="0"/>
         <v>6.8437499490062246</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="I67">
         <v>2</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="12">
         <f t="shared" si="0"/>
         <v>1.1631508098056809</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="I68">
         <v>2</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="12">
         <f t="shared" si="0"/>
         <v>-1.6094379124341003</v>
       </c>
@@ -1955,12 +1955,12 @@
       <c r="I69">
         <v>2</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="12">
         <f t="shared" si="0"/>
         <v>5.2300385257947424</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
       <c r="I70">
         <v>2</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="12">
         <f t="shared" si="0"/>
         <v>1.1804994481402939</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="I81">
         <v>2</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="12">
         <f>LN(D81)</f>
         <v>-4.1997050778799272</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="I82">
         <v>2</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J82" s="12">
         <f t="shared" ref="J82:J89" si="1">LN(D82)</f>
         <v>6.9077552789821368</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="I83">
         <v>2</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="12">
         <f t="shared" si="1"/>
         <v>1.7047480922384253</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="I84">
         <v>2</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="12">
         <f t="shared" si="1"/>
         <v>5.0498560072495371</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="I85">
         <v>2</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="12">
         <f t="shared" si="1"/>
         <v>6.8437499490062246</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="I86">
         <v>2</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J86" s="12">
         <f t="shared" si="1"/>
         <v>1.6094379124341003</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="I87">
         <v>2</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J87" s="12">
         <f t="shared" si="1"/>
         <v>-1.6094379124341003</v>
       </c>
@@ -2370,12 +2370,12 @@
       <c r="I88">
         <v>2</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="12">
         <f t="shared" si="1"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -2401,7 +2401,7 @@
       <c r="I89">
         <v>2</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J89" s="12">
         <f t="shared" si="1"/>
         <v>1.5859645562484583</v>
       </c>
@@ -2554,14 +2554,14 @@
       <c r="I100">
         <v>2</v>
       </c>
-      <c r="J100" s="15">
+      <c r="J100" s="12">
         <f>LN(D100)</f>
         <v>-3.912023005428146</v>
       </c>
       <c r="K100">
         <v>0.1</v>
       </c>
-      <c r="M100" s="15"/>
+      <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -2588,7 +2588,7 @@
       <c r="I101">
         <v>2</v>
       </c>
-      <c r="J101" s="15">
+      <c r="J101" s="12">
         <f t="shared" ref="J101:J108" si="3">LN(D101)</f>
         <v>6.9077552789821368</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="I102">
         <v>2</v>
       </c>
-      <c r="J102" s="15">
+      <c r="J102" s="12">
         <f t="shared" si="3"/>
         <v>1.7047480922384253</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="I103">
         <v>2</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="12">
         <f t="shared" si="3"/>
         <v>5.0498560072495371</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="I104">
         <v>2</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="12">
         <f t="shared" si="3"/>
         <v>6.8437499490062246</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="I105">
         <v>2</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="12">
         <f t="shared" si="3"/>
         <v>1.8870696490323797</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="I106">
         <v>2</v>
       </c>
-      <c r="J106" s="15">
+      <c r="J106" s="12">
         <f t="shared" si="3"/>
         <v>-1.6094379124341003</v>
       </c>
@@ -2786,12 +2786,12 @@
       <c r="I107">
         <v>2</v>
       </c>
-      <c r="J107" s="15">
+      <c r="J107" s="12">
         <f t="shared" si="3"/>
         <v>5.1556010643464418</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
       <c r="I108">
         <v>2</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J108" s="12">
         <f t="shared" si="3"/>
         <v>1.8736466287002393</v>
       </c>
@@ -3192,11 +3192,11 @@
       <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
